--- a/biology/Zoologie/Drymobius_margaritiferus/Drymobius_margaritiferus.xlsx
+++ b/biology/Zoologie/Drymobius_margaritiferus/Drymobius_margaritiferus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymobius margaritiferus, la couleuvre perlée[1] ou couleuvre coureuse mouchetée[2] est une espèce de serpents américains de la famille des Colubridae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymobius margaritiferus, la couleuvre perlée ou couleuvre coureuse mouchetée est une espèce de serpents américains de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Belize ;
 en Colombie ,
 au Costa Rica ;
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Drymobius margaritiferus mesure généralement entre 75 et 100 cm mais peut atteindre 127 cm. La couleur de fond de son dos est noire mais chaque écaille présente une teinte jaune ou bleu ce qui lui donne une teinte globale tirant sur le vert. Sa face ventrale varie entre le jaune et le vert.
 C'est un serpent rapide et prompt à mordre lorsqu'il est dérangé. Il affectionne la végétation dense avec un point d'eau à proximité. Son alimentation se compose essentiellement d'amphibiens. C'est un ovipare, la femelle pondant jusqu'à 8 œufs au printemps ou en été. L'incubation dure environ deux mois et les juvéniles mesurent environ 15 cm à leur naissance. Ils atteignent leur maturité à l'âge de deux ou trois ans.
@@ -583,9 +599,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Drymobius margaritiferus fistulosus Smith, 1942 - Mexique
 Drymobius margaritiferus margaritiferus (Schlegel, 1837)
 Drymobius margaritiferus maydis Villa, 1968
@@ -617,7 +635,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocourt, 1890 : in Recherches Zoologiques pour servir à l'Histoire de la Faune de l'Amérique Centrale et du Mexique. Mission Scientifique au Mexique et dans l'Amérique Centrale, Recherches zoologiques. Part 2, sect. 1. in Duméril, Bocourt &amp; Mocquard, 1870-1909, Études sur les reptiles, vol. 2-15, p. 33-860.
 Schlegel, 1837 : Essai sur la physionomie des serpens, La Haye, J. Kips, J. HZ. et W. P. van Stockum, vol. 1 (texte intégral) et vol. 2 (texte intégral).
